--- a/Code/Results/Cases/Case_3_249/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_249/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.13335082557135</v>
+        <v>12.20844944890229</v>
       </c>
       <c r="C2">
-        <v>7.328310018280848</v>
+        <v>9.295004803680674</v>
       </c>
       <c r="D2">
-        <v>6.709297422288794</v>
+        <v>9.583523297650462</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>20.87991857010462</v>
+        <v>32.70417578904911</v>
       </c>
       <c r="G2">
-        <v>22.36775207390788</v>
+        <v>33.71147391099176</v>
       </c>
       <c r="H2">
-        <v>9.323760923936328</v>
+        <v>15.69917436690564</v>
       </c>
       <c r="I2">
-        <v>15.19868226841382</v>
+        <v>25.01088591646907</v>
       </c>
       <c r="J2">
-        <v>6.092659982321956</v>
+        <v>10.54841625629543</v>
       </c>
       <c r="K2">
-        <v>11.66877603088136</v>
+        <v>9.089983209259596</v>
       </c>
       <c r="L2">
-        <v>7.441914316345705</v>
+        <v>11.52948286879961</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.0579779602129</v>
+        <v>24.52109886189538</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.20527321336001</v>
+        <v>11.92043621944675</v>
       </c>
       <c r="C3">
-        <v>7.288088479068182</v>
+        <v>9.288058108571086</v>
       </c>
       <c r="D3">
-        <v>6.490399472510154</v>
+        <v>9.561115437369303</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20.88327666097199</v>
+        <v>32.80792515795469</v>
       </c>
       <c r="G3">
-        <v>22.44852010187996</v>
+        <v>33.85743155213324</v>
       </c>
       <c r="H3">
-        <v>9.426796511628039</v>
+        <v>15.75150029690461</v>
       </c>
       <c r="I3">
-        <v>15.42405634043192</v>
+        <v>25.11590079308582</v>
       </c>
       <c r="J3">
-        <v>6.13981007286512</v>
+        <v>10.57190811446114</v>
       </c>
       <c r="K3">
-        <v>11.04542082129543</v>
+        <v>8.873941003152284</v>
       </c>
       <c r="L3">
-        <v>7.267585662538665</v>
+        <v>11.52016808732463</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.20390190115121</v>
+        <v>24.61626759756905</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.60110062437986</v>
+        <v>11.7411636790681</v>
       </c>
       <c r="C4">
-        <v>7.264211652258258</v>
+        <v>9.284207861875208</v>
       </c>
       <c r="D4">
-        <v>6.354559380398685</v>
+        <v>9.548688473687202</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>20.90168139461674</v>
+        <v>32.87817757483656</v>
       </c>
       <c r="G4">
-        <v>22.52195096703113</v>
+        <v>33.95565526138537</v>
       </c>
       <c r="H4">
-        <v>9.494623313593845</v>
+        <v>15.78575269119057</v>
       </c>
       <c r="I4">
-        <v>15.57141354052406</v>
+        <v>25.18447320768893</v>
       </c>
       <c r="J4">
-        <v>6.170495042913206</v>
+        <v>10.58725009539191</v>
       </c>
       <c r="K4">
-        <v>10.64357329759708</v>
+        <v>8.739167273784167</v>
       </c>
       <c r="L4">
-        <v>7.160995839380546</v>
+        <v>11.51586019676357</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.30404582565362</v>
+        <v>24.67905174443661</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.34623288622094</v>
+        <v>11.66759631219151</v>
       </c>
       <c r="C5">
-        <v>7.254689381378704</v>
+        <v>9.282744144049859</v>
       </c>
       <c r="D5">
-        <v>6.298926422916912</v>
+        <v>9.543962944943745</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>20.91316530471035</v>
+        <v>32.90845125411573</v>
       </c>
       <c r="G5">
-        <v>22.55761723749792</v>
+        <v>33.99784056430345</v>
       </c>
       <c r="H5">
-        <v>9.523384369817478</v>
+        <v>15.80024554252044</v>
       </c>
       <c r="I5">
-        <v>15.63366110065499</v>
+        <v>25.21344708801874</v>
       </c>
       <c r="J5">
-        <v>6.183432592918599</v>
+        <v>10.59373338961486</v>
       </c>
       <c r="K5">
-        <v>10.47509818996389</v>
+        <v>8.683783719848025</v>
       </c>
       <c r="L5">
-        <v>7.117727979481861</v>
+        <v>11.51446162233896</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.34741414355262</v>
+        <v>24.70573054919035</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.30338827682197</v>
+        <v>11.65535254397076</v>
       </c>
       <c r="C6">
-        <v>7.253120809708061</v>
+        <v>9.282507480591244</v>
       </c>
       <c r="D6">
-        <v>6.289674454859702</v>
+        <v>9.54319882676608</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>20.91530908603463</v>
+        <v>32.91357749054478</v>
       </c>
       <c r="G6">
-        <v>22.56387906889655</v>
+        <v>34.00497559795198</v>
       </c>
       <c r="H6">
-        <v>9.528227101225935</v>
+        <v>15.8026843834823</v>
       </c>
       <c r="I6">
-        <v>15.64412840522975</v>
+        <v>25.21832041865284</v>
       </c>
       <c r="J6">
-        <v>6.185606942699652</v>
+        <v>10.59482392120195</v>
       </c>
       <c r="K6">
-        <v>10.44684089582318</v>
+        <v>8.674561572035069</v>
       </c>
       <c r="L6">
-        <v>7.110555201708918</v>
+        <v>11.51425100351185</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.35476733584593</v>
+        <v>24.71022660112641</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.59769850103094</v>
+        <v>11.74017346417642</v>
       </c>
       <c r="C7">
-        <v>7.264082388314767</v>
+        <v>9.284187694147315</v>
       </c>
       <c r="D7">
-        <v>6.353810101026766</v>
+        <v>9.548623367989531</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>20.90182030827466</v>
+        <v>32.87857919713007</v>
       </c>
       <c r="G7">
-        <v>22.52240905610287</v>
+        <v>33.95621545540672</v>
       </c>
       <c r="H7">
-        <v>9.495006689273854</v>
+        <v>15.78594598096394</v>
       </c>
       <c r="I7">
-        <v>15.5722442061995</v>
+        <v>25.18485978768379</v>
       </c>
       <c r="J7">
-        <v>6.170667773107434</v>
+        <v>10.58733659411822</v>
       </c>
       <c r="K7">
-        <v>10.64132016328504</v>
+        <v>8.738422125833349</v>
       </c>
       <c r="L7">
-        <v>7.160411557824628</v>
+        <v>11.51583988736618</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.30462046479066</v>
+        <v>24.67940711570959</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.82045557786065</v>
+        <v>12.10970505286467</v>
       </c>
       <c r="C8">
-        <v>7.314272602996735</v>
+        <v>9.292523994356504</v>
       </c>
       <c r="D8">
-        <v>6.634167933306728</v>
+        <v>9.575523013354333</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>20.87760976211367</v>
+        <v>32.73858811101527</v>
       </c>
       <c r="G8">
-        <v>22.39050180873027</v>
+        <v>33.76001084956725</v>
       </c>
       <c r="H8">
-        <v>9.358324297546611</v>
+        <v>15.71677586535016</v>
       </c>
       <c r="I8">
-        <v>15.27449111386869</v>
+        <v>25.0462461030695</v>
       </c>
       <c r="J8">
-        <v>6.108555428254835</v>
+        <v>10.55632604454393</v>
       </c>
       <c r="K8">
-        <v>11.4578534528285</v>
+        <v>9.015974359460291</v>
       </c>
       <c r="L8">
-        <v>7.38174551263945</v>
+        <v>11.52597943880442</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.10604632209411</v>
+        <v>24.55301009069703</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.94740213099164</v>
+        <v>12.81095996920235</v>
       </c>
       <c r="C9">
-        <v>7.419124452012447</v>
+        <v>9.312124597656336</v>
       </c>
       <c r="D9">
-        <v>7.16918974344072</v>
+        <v>9.638664706780823</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>20.96525774159042</v>
+        <v>32.51611195702922</v>
       </c>
       <c r="G9">
-        <v>22.33214602533008</v>
+        <v>33.44377251725862</v>
       </c>
       <c r="H9">
-        <v>9.127766910304928</v>
+        <v>15.59795932205996</v>
       </c>
       <c r="I9">
-        <v>14.76474337521272</v>
+        <v>24.80685981119372</v>
       </c>
       <c r="J9">
-        <v>6.000663874894316</v>
+        <v>10.50277475229312</v>
       </c>
       <c r="K9">
-        <v>12.90468055409276</v>
+        <v>9.540448200887148</v>
       </c>
       <c r="L9">
-        <v>7.816995240705847</v>
+        <v>11.55696890234882</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.8047263660886</v>
+        <v>24.33966789698332</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.34719647505374</v>
+        <v>13.30678716051061</v>
       </c>
       <c r="C10">
-        <v>7.499987632226654</v>
+        <v>9.328455008982937</v>
       </c>
       <c r="D10">
-        <v>7.549248743327833</v>
+        <v>9.691143110101448</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>21.11918721245934</v>
+        <v>32.38448487782367</v>
       </c>
       <c r="G10">
-        <v>22.42632920516564</v>
+        <v>33.25352432190908</v>
       </c>
       <c r="H10">
-        <v>8.983140828934264</v>
+        <v>15.52088391576788</v>
       </c>
       <c r="I10">
-        <v>14.43991536636759</v>
+        <v>24.65069955472924</v>
       </c>
       <c r="J10">
-        <v>5.930099059656311</v>
+        <v>10.46782525235185</v>
       </c>
       <c r="K10">
-        <v>13.87088199280981</v>
+        <v>9.910022766831622</v>
       </c>
       <c r="L10">
-        <v>8.134552002183707</v>
+        <v>11.58637531909217</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.64345138022169</v>
+        <v>24.20397794468617</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.94915575293</v>
+        <v>13.52717194911321</v>
       </c>
       <c r="C11">
-        <v>7.537587041894104</v>
+        <v>9.336291515383198</v>
       </c>
       <c r="D11">
-        <v>7.718608274367378</v>
+        <v>9.716281524543485</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>21.21008616920081</v>
+        <v>32.33153344792499</v>
       </c>
       <c r="G11">
-        <v>22.50199102790848</v>
+        <v>33.17618157509717</v>
       </c>
       <c r="H11">
-        <v>8.923193181026111</v>
+        <v>15.48803135875094</v>
       </c>
       <c r="I11">
-        <v>14.30405673439014</v>
+        <v>24.58392822641826</v>
       </c>
       <c r="J11">
-        <v>5.899942716515658</v>
+        <v>10.45287343622402</v>
       </c>
       <c r="K11">
-        <v>14.28910658393811</v>
+        <v>10.07403549491323</v>
       </c>
       <c r="L11">
-        <v>8.277968739926909</v>
+        <v>11.60116344850223</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.58462204261439</v>
+        <v>24.14682233808906</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.17213939617926</v>
+        <v>13.60980953554497</v>
       </c>
       <c r="C12">
-        <v>7.551940376448119</v>
+        <v>9.339316578338043</v>
       </c>
       <c r="D12">
-        <v>7.782182302974386</v>
+        <v>9.725977573686279</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>21.2476182439845</v>
+        <v>32.31247943769814</v>
       </c>
       <c r="G12">
-        <v>22.53559793481866</v>
+        <v>33.14822241573818</v>
       </c>
       <c r="H12">
-        <v>8.901376043039209</v>
+        <v>15.47590810962366</v>
       </c>
       <c r="I12">
-        <v>14.2544286465632</v>
+        <v>24.55925651235197</v>
       </c>
       <c r="J12">
-        <v>5.888808109618235</v>
+        <v>10.44734723217255</v>
       </c>
       <c r="K12">
-        <v>14.44439979736218</v>
+        <v>10.13549987500149</v>
       </c>
       <c r="L12">
-        <v>8.332084645028688</v>
+        <v>11.60696332135856</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.56456528251604</v>
+        <v>24.12583651262623</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.12433604300446</v>
+        <v>13.59204952013892</v>
       </c>
       <c r="C13">
-        <v>7.548844031347499</v>
+        <v>9.338662534871933</v>
       </c>
       <c r="D13">
-        <v>7.76851609094745</v>
+        <v>9.723881585359576</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>21.23939502938118</v>
+        <v>32.31653867074177</v>
       </c>
       <c r="G13">
-        <v>22.52813606589165</v>
+        <v>33.15418473224548</v>
       </c>
       <c r="H13">
-        <v>8.906034720652183</v>
+        <v>15.47850496260406</v>
       </c>
       <c r="I13">
-        <v>14.26503425686674</v>
+        <v>24.56454274409842</v>
       </c>
       <c r="J13">
-        <v>5.891193382019552</v>
+        <v>10.44853136962935</v>
       </c>
       <c r="K13">
-        <v>14.4110917456046</v>
+        <v>10.12229184511937</v>
       </c>
       <c r="L13">
-        <v>8.320439042014383</v>
+        <v>11.6057053719376</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.56878396667085</v>
+        <v>24.13032692274425</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.96760002315409</v>
+        <v>13.53398737687533</v>
       </c>
       <c r="C14">
-        <v>7.538765599705844</v>
+        <v>9.336539242049692</v>
       </c>
       <c r="D14">
-        <v>7.723850014793582</v>
+        <v>9.71707571474724</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>21.21311101343817</v>
+        <v>32.32994586245657</v>
       </c>
       <c r="G14">
-        <v>22.50465526601366</v>
+        <v>33.1738546944327</v>
       </c>
       <c r="H14">
-        <v>8.921380299317246</v>
+        <v>15.48702761487448</v>
       </c>
       <c r="I14">
-        <v>14.29993670826721</v>
+        <v>24.58188618367915</v>
       </c>
       <c r="J14">
-        <v>5.899020922235841</v>
+        <v>10.45241607446103</v>
       </c>
       <c r="K14">
-        <v>14.30194442642085</v>
+        <v>10.07910539435765</v>
       </c>
       <c r="L14">
-        <v>8.282424987515398</v>
+        <v>11.60163661819536</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.58292668961769</v>
+        <v>24.1450826359257</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.87094930074157</v>
+        <v>13.49831409915424</v>
       </c>
       <c r="C15">
-        <v>7.532607225750045</v>
+        <v>9.335246125906362</v>
       </c>
       <c r="D15">
-        <v>7.696416587040769</v>
+        <v>9.712929769261683</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>21.19741951006867</v>
+        <v>32.33828810755453</v>
       </c>
       <c r="G15">
-        <v>22.49092473780509</v>
+        <v>33.18607633432497</v>
       </c>
       <c r="H15">
-        <v>8.930896346603749</v>
+        <v>15.49228929545133</v>
       </c>
       <c r="I15">
-        <v>14.32155563660353</v>
+        <v>24.59258937831467</v>
       </c>
       <c r="J15">
-        <v>5.903852793886589</v>
+        <v>10.45481323075166</v>
       </c>
       <c r="K15">
-        <v>14.23468719007687</v>
+        <v>10.05256712424418</v>
       </c>
       <c r="L15">
-        <v>8.259113945013203</v>
+        <v>11.59917033503189</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.5918826720807</v>
+        <v>24.15420661261366</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.30715993907642</v>
+        <v>13.29227401413131</v>
       </c>
       <c r="C16">
-        <v>7.497546648874727</v>
+        <v>9.327950987223963</v>
       </c>
       <c r="D16">
-        <v>7.538105135383685</v>
+        <v>9.689525274167085</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>21.11367625647206</v>
+        <v>32.38808489032686</v>
       </c>
       <c r="G16">
-        <v>22.42206537981873</v>
+        <v>33.25876450589917</v>
       </c>
       <c r="H16">
-        <v>8.987179770277326</v>
+        <v>15.52307533149038</v>
       </c>
       <c r="I16">
-        <v>14.44904251708326</v>
+        <v>24.6551490396986</v>
       </c>
       <c r="J16">
-        <v>5.932109416074098</v>
+        <v>10.4688214050226</v>
       </c>
       <c r="K16">
-        <v>13.84311978650134</v>
+        <v>9.899216856254601</v>
       </c>
       <c r="L16">
-        <v>8.125154649842765</v>
+        <v>11.5854370224242</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.6475995334592</v>
+        <v>24.2078052126273</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.95240536638756</v>
+        <v>13.16449655419792</v>
       </c>
       <c r="C17">
-        <v>7.476245349240703</v>
+        <v>9.323579319577492</v>
       </c>
       <c r="D17">
-        <v>7.440043395157321</v>
+        <v>9.675487830019444</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>21.06772851999041</v>
+        <v>32.42040876493578</v>
       </c>
       <c r="G17">
-        <v>22.38839969967368</v>
+        <v>33.30571727426432</v>
       </c>
       <c r="H17">
-        <v>9.023234318370632</v>
+        <v>15.54252715826989</v>
       </c>
       <c r="I17">
-        <v>14.53037387077947</v>
+        <v>24.69461987622004</v>
       </c>
       <c r="J17">
-        <v>5.94994552629331</v>
+        <v>10.47765717422828</v>
       </c>
       <c r="K17">
-        <v>13.59743525704056</v>
+        <v>9.80405013964643</v>
       </c>
       <c r="L17">
-        <v>8.042676327570094</v>
+        <v>11.5773714046553</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.68559398719929</v>
+        <v>24.24185719506391</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.74508049803118</v>
+        <v>13.09051980952198</v>
       </c>
       <c r="C18">
-        <v>7.464070160845493</v>
+        <v>9.321103294504146</v>
       </c>
       <c r="D18">
-        <v>7.383311120457591</v>
+        <v>9.667533332312084</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>21.04325938767889</v>
+        <v>32.43965246495414</v>
       </c>
       <c r="G18">
-        <v>22.37211159244729</v>
+        <v>33.33358908688117</v>
       </c>
       <c r="H18">
-        <v>9.044519152030869</v>
+        <v>15.55392332053703</v>
       </c>
       <c r="I18">
-        <v>14.57826732191338</v>
+        <v>24.71772408703898</v>
       </c>
       <c r="J18">
-        <v>5.960387006290311</v>
+        <v>10.482828426264</v>
       </c>
       <c r="K18">
-        <v>13.45411902632852</v>
+        <v>9.748928926370024</v>
       </c>
       <c r="L18">
-        <v>7.995141299856261</v>
+        <v>11.57286527218047</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.7088073875887</v>
+        <v>24.26187315240779</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.67431939179957</v>
+        <v>13.06539203085998</v>
       </c>
       <c r="C19">
-        <v>7.459961091981468</v>
+        <v>9.320271590132306</v>
       </c>
       <c r="D19">
-        <v>7.364047572411215</v>
+        <v>9.664860753995079</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>21.03530757170152</v>
+        <v>32.44627995954042</v>
       </c>
       <c r="G19">
-        <v>22.36711753908776</v>
+        <v>33.34317453565477</v>
       </c>
       <c r="H19">
-        <v>9.051818547054157</v>
+        <v>15.55781759985206</v>
       </c>
       <c r="I19">
-        <v>14.59467144052306</v>
+        <v>24.72561576941282</v>
       </c>
       <c r="J19">
-        <v>5.963953520412755</v>
+        <v>10.48459464855793</v>
       </c>
       <c r="K19">
-        <v>13.40525086836201</v>
+        <v>9.730201588113594</v>
       </c>
       <c r="L19">
-        <v>7.979031700235589</v>
+        <v>11.57136250371203</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.71689674116998</v>
+        <v>24.26872407542159</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.99050871160973</v>
+        <v>13.17814917750748</v>
       </c>
       <c r="C20">
-        <v>7.478504978723444</v>
+        <v>9.324040720179408</v>
       </c>
       <c r="D20">
-        <v>7.450516753325656</v>
+        <v>9.67696981330239</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>21.07241620067392</v>
+        <v>32.41690035633241</v>
       </c>
       <c r="G20">
-        <v>22.39166341483148</v>
+        <v>33.30062942136799</v>
       </c>
       <c r="H20">
-        <v>9.019339312123776</v>
+        <v>15.54043495536065</v>
       </c>
       <c r="I20">
-        <v>14.52159999583772</v>
+        <v>24.69037657426222</v>
       </c>
       <c r="J20">
-        <v>5.948027903683513</v>
+        <v>10.47670736787005</v>
       </c>
       <c r="K20">
-        <v>13.62379644268771</v>
+        <v>9.814220921170271</v>
       </c>
       <c r="L20">
-        <v>8.051466512770213</v>
+        <v>11.57821625974799</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.68140773075504</v>
+        <v>24.23818777982483</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.01377161393426</v>
+        <v>13.55106437891708</v>
       </c>
       <c r="C21">
-        <v>7.541722765617216</v>
+        <v>9.337161351500114</v>
       </c>
       <c r="D21">
-        <v>7.736985062101503</v>
+        <v>9.719070012478538</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>21.22074600904097</v>
+        <v>32.32598076063773</v>
       </c>
       <c r="G21">
-        <v>22.51141583723633</v>
+        <v>33.16804104107975</v>
       </c>
       <c r="H21">
-        <v>8.916848583012767</v>
+        <v>15.48451569706678</v>
       </c>
       <c r="I21">
-        <v>14.28963475703842</v>
+        <v>24.57677535776924</v>
       </c>
       <c r="J21">
-        <v>5.896714005041204</v>
+        <v>10.45127136242806</v>
       </c>
       <c r="K21">
-        <v>14.33408729807674</v>
+        <v>10.0918081711853</v>
       </c>
       <c r="L21">
-        <v>8.293596196885334</v>
+        <v>11.60282630818599</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.57871129522777</v>
+        <v>24.14073066943735</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.65361168606543</v>
+        <v>13.78999168499723</v>
       </c>
       <c r="C22">
-        <v>7.583710260580638</v>
+        <v>9.34607136112426</v>
       </c>
       <c r="D22">
-        <v>7.920932761622777</v>
+        <v>9.747612119516168</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>21.33586517698574</v>
+        <v>32.2723746157477</v>
       </c>
       <c r="G22">
-        <v>22.61866516481893</v>
+        <v>33.08913495147745</v>
       </c>
       <c r="H22">
-        <v>8.85503873540774</v>
+        <v>15.44981852165858</v>
       </c>
       <c r="I22">
-        <v>14.1486891552171</v>
+        <v>24.50610407297684</v>
       </c>
       <c r="J22">
-        <v>5.864841156075298</v>
+        <v>10.43543836765565</v>
       </c>
       <c r="K22">
-        <v>14.78035270484071</v>
+        <v>10.26945410433152</v>
       </c>
       <c r="L22">
-        <v>8.450700297121481</v>
+        <v>11.62007425649992</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.52460110029849</v>
+        <v>24.08087101531405</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.31474940292679</v>
+        <v>13.66293329554516</v>
       </c>
       <c r="C23">
-        <v>7.561239927008509</v>
+        <v>9.341285638609547</v>
       </c>
       <c r="D23">
-        <v>7.82307131537216</v>
+        <v>9.732286486029629</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>21.27272639331752</v>
+        <v>32.30045267826468</v>
       </c>
       <c r="G23">
-        <v>22.55869742743479</v>
+        <v>33.13053786275466</v>
       </c>
       <c r="H23">
-        <v>8.887539144245345</v>
+        <v>15.46816797957595</v>
       </c>
       <c r="I23">
-        <v>14.22290153267398</v>
+        <v>24.54349580315371</v>
       </c>
       <c r="J23">
-        <v>5.881698145476304</v>
+        <v>10.44381651020955</v>
       </c>
       <c r="K23">
-        <v>14.54381811018713</v>
+        <v>10.17500275410876</v>
       </c>
       <c r="L23">
-        <v>8.366968597489214</v>
+        <v>11.61076322813021</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.55224601901533</v>
+        <v>24.1124682280822</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.973292694534</v>
+        <v>13.17197842737116</v>
       </c>
       <c r="C24">
-        <v>7.477483178281571</v>
+        <v>9.323832004688267</v>
       </c>
       <c r="D24">
-        <v>7.445782850757461</v>
+        <v>9.676299447514811</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>21.07029084459672</v>
+        <v>32.41848445128886</v>
       </c>
       <c r="G24">
-        <v>22.39017835506736</v>
+        <v>33.30292690506726</v>
       </c>
       <c r="H24">
-        <v>9.021098514028338</v>
+        <v>15.54138017663412</v>
       </c>
       <c r="I24">
-        <v>14.52556313743681</v>
+        <v>24.69229368800359</v>
       </c>
       <c r="J24">
-        <v>5.948894277987173</v>
+        <v>10.47713649043317</v>
       </c>
       <c r="K24">
-        <v>13.61188499361042</v>
+        <v>9.809623979482824</v>
       </c>
       <c r="L24">
-        <v>8.047492831593244</v>
+        <v>11.57783389280813</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.68329608022849</v>
+        <v>24.23984535498283</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.40077993869706</v>
+        <v>12.62430719958817</v>
       </c>
       <c r="C25">
-        <v>7.390080275204893</v>
+        <v>9.306479273019026</v>
       </c>
       <c r="D25">
-        <v>7.026474325635617</v>
+        <v>9.620495235058552</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>20.92632400605874</v>
+        <v>32.57071517875386</v>
       </c>
       <c r="G25">
-        <v>22.32492449151972</v>
+        <v>33.52195426877424</v>
       </c>
       <c r="H25">
-        <v>9.185938589747835</v>
+        <v>15.62830504112922</v>
       </c>
       <c r="I25">
-        <v>14.8942709397613</v>
+        <v>24.86815374097317</v>
       </c>
       <c r="J25">
-        <v>6.02834051012105</v>
+        <v>10.51648779813847</v>
       </c>
       <c r="K25">
-        <v>12.53013026928524</v>
+        <v>9.401080866068156</v>
       </c>
       <c r="L25">
-        <v>7.699435325457617</v>
+        <v>11.54740949344822</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.87617059925606</v>
+        <v>24.39368613451557</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_249/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_249/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.20844944890229</v>
+        <v>14.1333508255714</v>
       </c>
       <c r="C2">
-        <v>9.295004803680674</v>
+        <v>7.328310018280972</v>
       </c>
       <c r="D2">
-        <v>9.583523297650462</v>
+        <v>6.709297422288669</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>32.70417578904911</v>
+        <v>20.87991857010449</v>
       </c>
       <c r="G2">
-        <v>33.71147391099176</v>
+        <v>22.3677520739077</v>
       </c>
       <c r="H2">
-        <v>15.69917436690564</v>
+        <v>9.323760923936335</v>
       </c>
       <c r="I2">
-        <v>25.01088591646907</v>
+        <v>15.19868226841374</v>
       </c>
       <c r="J2">
-        <v>10.54841625629543</v>
+        <v>6.092659982321958</v>
       </c>
       <c r="K2">
-        <v>9.089983209259596</v>
+        <v>11.6687760308814</v>
       </c>
       <c r="L2">
-        <v>11.52948286879961</v>
+        <v>7.44191431634566</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>24.52109886189538</v>
+        <v>15.0579779602128</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.92043621944675</v>
+        <v>13.20527321336002</v>
       </c>
       <c r="C3">
-        <v>9.288058108571086</v>
+        <v>7.288088479068433</v>
       </c>
       <c r="D3">
-        <v>9.561115437369303</v>
+        <v>6.490399472510022</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>32.80792515795469</v>
+        <v>20.88327666097192</v>
       </c>
       <c r="G3">
-        <v>33.85743155213324</v>
+        <v>22.44852010187993</v>
       </c>
       <c r="H3">
-        <v>15.75150029690461</v>
+        <v>9.426796511628044</v>
       </c>
       <c r="I3">
-        <v>25.11590079308582</v>
+        <v>15.42405634043194</v>
       </c>
       <c r="J3">
-        <v>10.57190811446114</v>
+        <v>6.139810072865122</v>
       </c>
       <c r="K3">
-        <v>8.873941003152284</v>
+        <v>11.04542082129543</v>
       </c>
       <c r="L3">
-        <v>11.52016808732463</v>
+        <v>7.267585662538621</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>24.61626759756905</v>
+        <v>15.20390190115119</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.7411636790681</v>
+        <v>12.60110062437986</v>
       </c>
       <c r="C4">
-        <v>9.284207861875208</v>
+        <v>7.264211652258373</v>
       </c>
       <c r="D4">
-        <v>9.548688473687202</v>
+        <v>6.354559380398647</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>32.87817757483656</v>
+        <v>20.90168139461662</v>
       </c>
       <c r="G4">
-        <v>33.95565526138537</v>
+        <v>22.5219509670309</v>
       </c>
       <c r="H4">
-        <v>15.78575269119057</v>
+        <v>9.494623313593783</v>
       </c>
       <c r="I4">
-        <v>25.18447320768893</v>
+        <v>15.571413540524</v>
       </c>
       <c r="J4">
-        <v>10.58725009539191</v>
+        <v>6.170495042913272</v>
       </c>
       <c r="K4">
-        <v>8.739167273784167</v>
+        <v>10.64357329759709</v>
       </c>
       <c r="L4">
-        <v>11.51586019676357</v>
+        <v>7.16099583938052</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>24.67905174443661</v>
+        <v>15.30404582565353</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.66759631219151</v>
+        <v>12.34623288622098</v>
       </c>
       <c r="C5">
-        <v>9.282744144049859</v>
+        <v>7.254689381378565</v>
       </c>
       <c r="D5">
-        <v>9.543962944943745</v>
+        <v>6.298926422916866</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>32.90845125411573</v>
+        <v>20.91316530471017</v>
       </c>
       <c r="G5">
-        <v>33.99784056430345</v>
+        <v>22.55761723749759</v>
       </c>
       <c r="H5">
-        <v>15.80024554252044</v>
+        <v>9.523384369817476</v>
       </c>
       <c r="I5">
-        <v>25.21344708801874</v>
+        <v>15.63366110065487</v>
       </c>
       <c r="J5">
-        <v>10.59373338961486</v>
+        <v>6.183432592918569</v>
       </c>
       <c r="K5">
-        <v>8.683783719848025</v>
+        <v>10.4750981899639</v>
       </c>
       <c r="L5">
-        <v>11.51446162233896</v>
+        <v>7.117727979481855</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>24.70573054919035</v>
+        <v>15.34741414355252</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.65535254397076</v>
+        <v>12.30338827682195</v>
       </c>
       <c r="C6">
-        <v>9.282507480591244</v>
+        <v>7.253120809708443</v>
       </c>
       <c r="D6">
-        <v>9.54319882676608</v>
+        <v>6.289674454859777</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>32.91357749054478</v>
+        <v>20.9153090860347</v>
       </c>
       <c r="G6">
-        <v>34.00497559795198</v>
+        <v>22.56387906889668</v>
       </c>
       <c r="H6">
-        <v>15.8026843834823</v>
+        <v>9.528227101225877</v>
       </c>
       <c r="I6">
-        <v>25.21832041865284</v>
+        <v>15.64412840522991</v>
       </c>
       <c r="J6">
-        <v>10.59482392120195</v>
+        <v>6.185606942699682</v>
       </c>
       <c r="K6">
-        <v>8.674561572035069</v>
+        <v>10.44684089582324</v>
       </c>
       <c r="L6">
-        <v>11.51425100351185</v>
+        <v>7.110555201708828</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>24.71022660112641</v>
+        <v>15.35476733584593</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.74017346417642</v>
+        <v>12.59769850103097</v>
       </c>
       <c r="C7">
-        <v>9.284187694147315</v>
+        <v>7.264082388314754</v>
       </c>
       <c r="D7">
-        <v>9.548623367989531</v>
+        <v>6.353810101026758</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>32.87857919713007</v>
+        <v>20.90182030827451</v>
       </c>
       <c r="G7">
-        <v>33.95621545540672</v>
+        <v>22.52240905610278</v>
       </c>
       <c r="H7">
-        <v>15.78594598096394</v>
+        <v>9.495006689273792</v>
       </c>
       <c r="I7">
-        <v>25.18485978768379</v>
+        <v>15.57224420619941</v>
       </c>
       <c r="J7">
-        <v>10.58733659411822</v>
+        <v>6.170667773107467</v>
       </c>
       <c r="K7">
-        <v>8.738422125833349</v>
+        <v>10.64132016328507</v>
       </c>
       <c r="L7">
-        <v>11.51583988736618</v>
+        <v>7.160411557824596</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>24.67940711570959</v>
+        <v>15.30462046479051</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.10970505286467</v>
+        <v>13.82045557786067</v>
       </c>
       <c r="C8">
-        <v>9.292523994356504</v>
+        <v>7.314272602996853</v>
       </c>
       <c r="D8">
-        <v>9.575523013354333</v>
+        <v>6.634167933306688</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>32.73858811101527</v>
+        <v>20.87760976211353</v>
       </c>
       <c r="G8">
-        <v>33.76001084956725</v>
+        <v>22.39050180873031</v>
       </c>
       <c r="H8">
-        <v>15.71677586535016</v>
+        <v>9.358324297546492</v>
       </c>
       <c r="I8">
-        <v>25.0462461030695</v>
+        <v>15.27449111386866</v>
       </c>
       <c r="J8">
-        <v>10.55632604454393</v>
+        <v>6.108555428254869</v>
       </c>
       <c r="K8">
-        <v>9.015974359460291</v>
+        <v>11.45785345282855</v>
       </c>
       <c r="L8">
-        <v>11.52597943880442</v>
+        <v>7.381745512639403</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>24.55301009069703</v>
+        <v>15.10604632209402</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.81095996920235</v>
+        <v>15.94740213099163</v>
       </c>
       <c r="C9">
-        <v>9.312124597656336</v>
+        <v>7.419124452012555</v>
       </c>
       <c r="D9">
-        <v>9.638664706780823</v>
+        <v>7.169189743440718</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>32.51611195702922</v>
+        <v>20.96525774159041</v>
       </c>
       <c r="G9">
-        <v>33.44377251725862</v>
+        <v>22.33214602533006</v>
       </c>
       <c r="H9">
-        <v>15.59795932205996</v>
+        <v>9.127766910304928</v>
       </c>
       <c r="I9">
-        <v>24.80685981119372</v>
+        <v>14.76474337521275</v>
       </c>
       <c r="J9">
-        <v>10.50277475229312</v>
+        <v>6.000663874894377</v>
       </c>
       <c r="K9">
-        <v>9.540448200887148</v>
+        <v>12.90468055409278</v>
       </c>
       <c r="L9">
-        <v>11.55696890234882</v>
+        <v>7.816995240705817</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>24.33966789698332</v>
+        <v>14.80472636608859</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.30678716051061</v>
+        <v>17.34719647505379</v>
       </c>
       <c r="C10">
-        <v>9.328455008982937</v>
+        <v>7.499987632226645</v>
       </c>
       <c r="D10">
-        <v>9.691143110101448</v>
+        <v>7.549248743327739</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>32.38448487782367</v>
+        <v>21.11918721245926</v>
       </c>
       <c r="G10">
-        <v>33.25352432190908</v>
+        <v>22.42632920516558</v>
       </c>
       <c r="H10">
-        <v>15.52088391576788</v>
+        <v>8.983140828934273</v>
       </c>
       <c r="I10">
-        <v>24.65069955472924</v>
+        <v>14.43991536636754</v>
       </c>
       <c r="J10">
-        <v>10.46782525235185</v>
+        <v>5.930099059656313</v>
       </c>
       <c r="K10">
-        <v>9.910022766831622</v>
+        <v>13.87088199280985</v>
       </c>
       <c r="L10">
-        <v>11.58637531909217</v>
+        <v>8.134552002183682</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>24.20397794468617</v>
+        <v>14.64345138022165</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.52717194911321</v>
+        <v>17.94915575293001</v>
       </c>
       <c r="C11">
-        <v>9.336291515383198</v>
+        <v>7.537587041894199</v>
       </c>
       <c r="D11">
-        <v>9.716281524543485</v>
+        <v>7.718608274367385</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>32.33153344792499</v>
+        <v>21.21008616920083</v>
       </c>
       <c r="G11">
-        <v>33.17618157509717</v>
+        <v>22.50199102790849</v>
       </c>
       <c r="H11">
-        <v>15.48803135875094</v>
+        <v>8.923193181026111</v>
       </c>
       <c r="I11">
-        <v>24.58392822641826</v>
+        <v>14.30405673439019</v>
       </c>
       <c r="J11">
-        <v>10.45287343622402</v>
+        <v>5.899942716515691</v>
       </c>
       <c r="K11">
-        <v>10.07403549491323</v>
+        <v>14.28910658393814</v>
       </c>
       <c r="L11">
-        <v>11.60116344850223</v>
+        <v>8.277968739926896</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>24.14682233808906</v>
+        <v>14.5846220426144</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.60980953554497</v>
+        <v>18.17213939617929</v>
       </c>
       <c r="C12">
-        <v>9.339316578338043</v>
+        <v>7.551940376448117</v>
       </c>
       <c r="D12">
-        <v>9.725977573686279</v>
+        <v>7.782182302974386</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>32.31247943769814</v>
+        <v>21.24761824398435</v>
       </c>
       <c r="G12">
-        <v>33.14822241573818</v>
+        <v>22.53559793481839</v>
       </c>
       <c r="H12">
-        <v>15.47590810962366</v>
+        <v>8.90137604303909</v>
       </c>
       <c r="I12">
-        <v>24.55925651235197</v>
+        <v>14.25442864656304</v>
       </c>
       <c r="J12">
-        <v>10.44734723217255</v>
+        <v>5.888808109618203</v>
       </c>
       <c r="K12">
-        <v>10.13549987500149</v>
+        <v>14.44439979736221</v>
       </c>
       <c r="L12">
-        <v>11.60696332135856</v>
+        <v>8.332084645028663</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>24.12583651262623</v>
+        <v>14.56456528251587</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.59204952013892</v>
+        <v>18.1243360430045</v>
       </c>
       <c r="C13">
-        <v>9.338662534871933</v>
+        <v>7.548844031347272</v>
       </c>
       <c r="D13">
-        <v>9.723881585359576</v>
+        <v>7.768516090947508</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>32.31653867074177</v>
+        <v>21.2393950293811</v>
       </c>
       <c r="G13">
-        <v>33.15418473224548</v>
+        <v>22.52813606589151</v>
       </c>
       <c r="H13">
-        <v>15.47850496260406</v>
+        <v>8.906034720652004</v>
       </c>
       <c r="I13">
-        <v>24.56454274409842</v>
+        <v>14.2650342568666</v>
       </c>
       <c r="J13">
-        <v>10.44853136962935</v>
+        <v>5.891193382019459</v>
       </c>
       <c r="K13">
-        <v>10.12229184511937</v>
+        <v>14.41109174560462</v>
       </c>
       <c r="L13">
-        <v>11.6057053719376</v>
+        <v>8.320439042014376</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>24.13032692274425</v>
+        <v>14.56878396667073</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.53398737687533</v>
+        <v>17.96760002315403</v>
       </c>
       <c r="C14">
-        <v>9.336539242049692</v>
+        <v>7.538765599706203</v>
       </c>
       <c r="D14">
-        <v>9.71707571474724</v>
+        <v>7.723850014793694</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>32.32994586245657</v>
+        <v>21.2131110134383</v>
       </c>
       <c r="G14">
-        <v>33.1738546944327</v>
+        <v>22.50465526601369</v>
       </c>
       <c r="H14">
-        <v>15.48702761487448</v>
+        <v>8.921380299317425</v>
       </c>
       <c r="I14">
-        <v>24.58188618367915</v>
+        <v>14.2999367082674</v>
       </c>
       <c r="J14">
-        <v>10.45241607446103</v>
+        <v>5.899020922235874</v>
       </c>
       <c r="K14">
-        <v>10.07910539435765</v>
+        <v>14.30194442642088</v>
       </c>
       <c r="L14">
-        <v>11.60163661819536</v>
+        <v>8.282424987515332</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>24.1450826359257</v>
+        <v>14.58292668961776</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.49831409915424</v>
+        <v>17.87094930074159</v>
       </c>
       <c r="C15">
-        <v>9.335246125906362</v>
+        <v>7.532607225750029</v>
       </c>
       <c r="D15">
-        <v>9.712929769261683</v>
+        <v>7.696416587040762</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>32.33828810755453</v>
+        <v>21.19741951006869</v>
       </c>
       <c r="G15">
-        <v>33.18607633432497</v>
+        <v>22.49092473780521</v>
       </c>
       <c r="H15">
-        <v>15.49228929545133</v>
+        <v>8.930896346603696</v>
       </c>
       <c r="I15">
-        <v>24.59258937831467</v>
+        <v>14.32155563660358</v>
       </c>
       <c r="J15">
-        <v>10.45481323075166</v>
+        <v>5.903852793886555</v>
       </c>
       <c r="K15">
-        <v>10.05256712424418</v>
+        <v>14.23468719007686</v>
       </c>
       <c r="L15">
-        <v>11.59917033503189</v>
+        <v>8.259113945013157</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>24.15420661261366</v>
+        <v>14.59188267208072</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.29227401413131</v>
+        <v>17.30715993907645</v>
       </c>
       <c r="C16">
-        <v>9.327950987223963</v>
+        <v>7.497546648874451</v>
       </c>
       <c r="D16">
-        <v>9.689525274167085</v>
+        <v>7.538105135383631</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>32.38808489032686</v>
+        <v>21.11367625647209</v>
       </c>
       <c r="G16">
-        <v>33.25876450589917</v>
+        <v>22.42206537981886</v>
       </c>
       <c r="H16">
-        <v>15.52307533149038</v>
+        <v>8.987179770277335</v>
       </c>
       <c r="I16">
-        <v>24.6551490396986</v>
+        <v>14.44904251708325</v>
       </c>
       <c r="J16">
-        <v>10.4688214050226</v>
+        <v>5.932109416074069</v>
       </c>
       <c r="K16">
-        <v>9.899216856254601</v>
+        <v>13.84311978650129</v>
       </c>
       <c r="L16">
-        <v>11.5854370224242</v>
+        <v>8.125154649842784</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>24.2078052126273</v>
+        <v>14.64759953345927</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.16449655419792</v>
+        <v>16.95240536638754</v>
       </c>
       <c r="C17">
-        <v>9.323579319577492</v>
+        <v>7.476245349240697</v>
       </c>
       <c r="D17">
-        <v>9.675487830019444</v>
+        <v>7.440043395157356</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>32.42040876493578</v>
+        <v>21.06772851999053</v>
       </c>
       <c r="G17">
-        <v>33.30571727426432</v>
+        <v>22.38839969967376</v>
       </c>
       <c r="H17">
-        <v>15.54252715826989</v>
+        <v>9.023234318370694</v>
       </c>
       <c r="I17">
-        <v>24.69461987622004</v>
+        <v>14.53037387077956</v>
       </c>
       <c r="J17">
-        <v>10.47765717422828</v>
+        <v>5.949945526293281</v>
       </c>
       <c r="K17">
-        <v>9.80405013964643</v>
+        <v>13.59743525704053</v>
       </c>
       <c r="L17">
-        <v>11.5773714046553</v>
+        <v>8.042676327570087</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>24.24185719506391</v>
+        <v>14.68559398719939</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.09051980952198</v>
+        <v>16.7450804980312</v>
       </c>
       <c r="C18">
-        <v>9.321103294504146</v>
+        <v>7.464070160845367</v>
       </c>
       <c r="D18">
-        <v>9.667533332312084</v>
+        <v>7.383311120457599</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>32.43965246495414</v>
+        <v>21.04325938767879</v>
       </c>
       <c r="G18">
-        <v>33.33358908688117</v>
+        <v>22.37211159244707</v>
       </c>
       <c r="H18">
-        <v>15.55392332053703</v>
+        <v>9.044519152030766</v>
       </c>
       <c r="I18">
-        <v>24.71772408703898</v>
+        <v>14.57826732191326</v>
       </c>
       <c r="J18">
-        <v>10.482828426264</v>
+        <v>5.960387006290342</v>
       </c>
       <c r="K18">
-        <v>9.748928926370024</v>
+        <v>13.45411902632852</v>
       </c>
       <c r="L18">
-        <v>11.57286527218047</v>
+        <v>7.995141299856281</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>24.26187315240779</v>
+        <v>14.7088073875886</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.06539203085998</v>
+        <v>16.67431939179955</v>
       </c>
       <c r="C19">
-        <v>9.320271590132306</v>
+        <v>7.459961091981699</v>
       </c>
       <c r="D19">
-        <v>9.664860753995079</v>
+        <v>7.364047572411189</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>32.44627995954042</v>
+        <v>21.03530757170138</v>
       </c>
       <c r="G19">
-        <v>33.34317453565477</v>
+        <v>22.36711753908768</v>
       </c>
       <c r="H19">
-        <v>15.55781759985206</v>
+        <v>9.051818547054101</v>
       </c>
       <c r="I19">
-        <v>24.72561576941282</v>
+        <v>14.59467144052303</v>
       </c>
       <c r="J19">
-        <v>10.48459464855793</v>
+        <v>5.963953520412761</v>
       </c>
       <c r="K19">
-        <v>9.730201588113594</v>
+        <v>13.40525086836202</v>
       </c>
       <c r="L19">
-        <v>11.57136250371203</v>
+        <v>7.979031700235524</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>24.26872407542159</v>
+        <v>14.7168967411699</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.17814917750748</v>
+        <v>16.99050871160973</v>
       </c>
       <c r="C20">
-        <v>9.324040720179408</v>
+        <v>7.478504978723696</v>
       </c>
       <c r="D20">
-        <v>9.67696981330239</v>
+        <v>7.450516753325771</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>32.41690035633241</v>
+        <v>21.07241620067385</v>
       </c>
       <c r="G20">
-        <v>33.30062942136799</v>
+        <v>22.39166341483126</v>
       </c>
       <c r="H20">
-        <v>15.54043495536065</v>
+        <v>9.019339312123721</v>
       </c>
       <c r="I20">
-        <v>24.69037657426222</v>
+        <v>14.52159999583758</v>
       </c>
       <c r="J20">
-        <v>10.47670736787005</v>
+        <v>5.948027903683457</v>
       </c>
       <c r="K20">
-        <v>9.814220921170271</v>
+        <v>13.62379644268777</v>
       </c>
       <c r="L20">
-        <v>11.57821625974799</v>
+        <v>8.051466512770226</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>24.23818777982483</v>
+        <v>14.68140773075489</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.55106437891708</v>
+        <v>18.01377161393421</v>
       </c>
       <c r="C21">
-        <v>9.337161351500114</v>
+        <v>7.541722765617568</v>
       </c>
       <c r="D21">
-        <v>9.719070012478538</v>
+        <v>7.736985062101601</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>32.32598076063773</v>
+        <v>21.22074600904102</v>
       </c>
       <c r="G21">
-        <v>33.16804104107975</v>
+        <v>22.51141583723628</v>
       </c>
       <c r="H21">
-        <v>15.48451569706678</v>
+        <v>8.916848583012772</v>
       </c>
       <c r="I21">
-        <v>24.57677535776924</v>
+        <v>14.28963475703852</v>
       </c>
       <c r="J21">
-        <v>10.45127136242806</v>
+        <v>5.896714005041238</v>
       </c>
       <c r="K21">
-        <v>10.0918081711853</v>
+        <v>14.33408729807677</v>
       </c>
       <c r="L21">
-        <v>11.60282630818599</v>
+        <v>8.293596196885316</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>24.14073066943735</v>
+        <v>14.57871129522773</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.78999168499723</v>
+        <v>18.65361168606551</v>
       </c>
       <c r="C22">
-        <v>9.34607136112426</v>
+        <v>7.583710260580505</v>
       </c>
       <c r="D22">
-        <v>9.747612119516168</v>
+        <v>7.920932761622771</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>32.2723746157477</v>
+        <v>21.3358651769857</v>
       </c>
       <c r="G22">
-        <v>33.08913495147745</v>
+        <v>22.61866516481876</v>
       </c>
       <c r="H22">
-        <v>15.44981852165858</v>
+        <v>8.855038735407637</v>
       </c>
       <c r="I22">
-        <v>24.50610407297684</v>
+        <v>14.14868915521696</v>
       </c>
       <c r="J22">
-        <v>10.43543836765565</v>
+        <v>5.864841156075245</v>
       </c>
       <c r="K22">
-        <v>10.26945410433152</v>
+        <v>14.78035270484075</v>
       </c>
       <c r="L22">
-        <v>11.62007425649992</v>
+        <v>8.450700297121568</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>24.08087101531405</v>
+        <v>14.52460110029842</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.66293329554516</v>
+        <v>18.31474940292682</v>
       </c>
       <c r="C23">
-        <v>9.341285638609547</v>
+        <v>7.561239927008609</v>
       </c>
       <c r="D23">
-        <v>9.732286486029629</v>
+        <v>7.823071315372217</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>32.30045267826468</v>
+        <v>21.27272639331753</v>
       </c>
       <c r="G23">
-        <v>33.13053786275466</v>
+        <v>22.55869742743474</v>
       </c>
       <c r="H23">
-        <v>15.46816797957595</v>
+        <v>8.887539144245352</v>
       </c>
       <c r="I23">
-        <v>24.54349580315371</v>
+        <v>14.222901532674</v>
       </c>
       <c r="J23">
-        <v>10.44381651020955</v>
+        <v>5.881698145476368</v>
       </c>
       <c r="K23">
-        <v>10.17500275410876</v>
+        <v>14.54381811018715</v>
       </c>
       <c r="L23">
-        <v>11.61076322813021</v>
+        <v>8.366968597489247</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>24.1124682280822</v>
+        <v>14.55224601901529</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.17197842737116</v>
+        <v>16.97329269453407</v>
       </c>
       <c r="C24">
-        <v>9.323832004688267</v>
+        <v>7.477483178281324</v>
       </c>
       <c r="D24">
-        <v>9.676299447514811</v>
+        <v>7.445782850757402</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>32.41848445128886</v>
+        <v>21.07029084459653</v>
       </c>
       <c r="G24">
-        <v>33.30292690506726</v>
+        <v>22.39017835506706</v>
       </c>
       <c r="H24">
-        <v>15.54138017663412</v>
+        <v>9.021098514028228</v>
       </c>
       <c r="I24">
-        <v>24.69229368800359</v>
+        <v>14.5255631374366</v>
       </c>
       <c r="J24">
-        <v>10.47713649043317</v>
+        <v>5.948894277987268</v>
       </c>
       <c r="K24">
-        <v>9.809623979482824</v>
+        <v>13.61188499361046</v>
       </c>
       <c r="L24">
-        <v>11.57783389280813</v>
+        <v>8.04749283159329</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>24.23984535498283</v>
+        <v>14.68329608022835</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.62430719958817</v>
+        <v>15.40077993869711</v>
       </c>
       <c r="C25">
-        <v>9.306479273019026</v>
+        <v>7.39008027520515</v>
       </c>
       <c r="D25">
-        <v>9.620495235058552</v>
+        <v>7.026474325635602</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>32.57071517875386</v>
+        <v>20.92632400605843</v>
       </c>
       <c r="G25">
-        <v>33.52195426877424</v>
+        <v>22.32492449151915</v>
       </c>
       <c r="H25">
-        <v>15.62830504112922</v>
+        <v>9.185938589747778</v>
       </c>
       <c r="I25">
-        <v>24.86815374097317</v>
+        <v>14.89427093976107</v>
       </c>
       <c r="J25">
-        <v>10.51648779813847</v>
+        <v>6.028340510121051</v>
       </c>
       <c r="K25">
-        <v>9.401080866068156</v>
+        <v>12.53013026928533</v>
       </c>
       <c r="L25">
-        <v>11.54740949344822</v>
+        <v>7.699435325457533</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>24.39368613451557</v>
+        <v>14.87617059925576</v>
       </c>
     </row>
   </sheetData>
